--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\sterRegein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -904,7 +904,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -1714,5 +1714,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>締め切り</t>
     <rPh sb="0" eb="1">
@@ -289,6 +289,9 @@
       <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,7 +955,7 @@
       </c>
       <c r="C3" s="23">
         <f ca="1">TODAY()</f>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -961,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -980,7 +983,7 @@
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C21" ca="1" si="0">TODAY()</f>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -989,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="C5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -1036,7 +1039,7 @@
       </c>
       <c r="C6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -1061,13 +1064,13 @@
       </c>
       <c r="C7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="C8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -1112,7 +1115,7 @@
       </c>
       <c r="C9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -1138,7 +1141,7 @@
       </c>
       <c r="C10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="C11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="C12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -1216,7 +1219,7 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="C14" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -1268,7 +1271,7 @@
       </c>
       <c r="C15" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -1294,7 +1297,7 @@
       </c>
       <c r="C16" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="C17" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -1346,7 +1349,7 @@
       </c>
       <c r="C18" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="C19" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -1398,7 +1401,7 @@
       </c>
       <c r="C20" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="C21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43578</v>
+        <v>43580</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -1433,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>締め切り</t>
     <rPh sb="0" eb="1">
@@ -95,29 +95,6 @@
     <t>未完</t>
   </si>
   <si>
-    <t>てんびん座のレム化</t>
-    <rPh sb="4" eb="5">
-      <t>ザ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おとめ座MP１００遠距離吸収</t>
-    <rPh sb="3" eb="4">
-      <t>ザ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キュウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ふたご座のサブ機調整</t>
     <rPh sb="3" eb="4">
       <t>ザ</t>
@@ -284,14 +261,200 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>てんびん座：残HPによって攻撃力が変化する攻撃</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとめ座MP50消費でHPを吸収する遠距離攻撃</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：通常攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：ステージ選択など</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：敵の攻撃を受けたとき</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM：タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM：ステージ選択画面</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM：ゲーム画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM：ステージクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM：ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうし座（ダッシュ）のアニメーション</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんびん座（HP依存攻撃）のアニメーション</t>
+    <rPh sb="4" eb="5">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとめ座、ふたご座（着弾時）のアニメーション</t>
+    <rPh sb="3" eb="4">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チャクダン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しし座（スタン）のアニメーション</t>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵撃破時のアニメーション</t>
     <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIの修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qキーでオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hキーでヘルプ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -904,21 +1067,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -941,21 +1104,20 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="23">
-        <f ca="1">TODAY()</f>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -964,26 +1126,25 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="15" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" ref="C4:C21" ca="1" si="0">TODAY()</f>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -992,63 +1153,61 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1057,14 +1216,13 @@
       <c r="L6" s="1"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -1073,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1083,23 +1241,22 @@
       <c r="L7" s="1"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1108,14 +1265,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -1124,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1134,14 +1290,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -1160,14 +1315,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -1176,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1186,14 +1340,13 @@
       <c r="L11" s="1"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -1212,14 +1365,13 @@
       <c r="L12" s="1"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1238,14 +1390,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -1264,14 +1415,13 @@
       <c r="L14" s="1"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -1290,14 +1440,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -1306,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1316,14 +1465,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -1332,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1342,14 +1490,13 @@
       <c r="L17" s="1"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -1358,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1368,14 +1515,13 @@
       <c r="L18" s="1"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -1384,7 +1530,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1394,23 +1540,22 @@
       <c r="L19" s="1"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1420,23 +1565,22 @@
       <c r="L20" s="1"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43574</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1446,16 +1590,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1465,16 +1611,18 @@
       <c r="L22" s="1"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1484,16 +1632,18 @@
       <c r="L23" s="1"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1503,16 +1653,18 @@
       <c r="L24" s="1"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1522,16 +1674,18 @@
       <c r="L25" s="1"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1541,16 +1695,18 @@
       <c r="L26" s="1"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1560,16 +1716,18 @@
       <c r="L27" s="1"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1579,16 +1737,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1598,16 +1758,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1617,16 +1779,18 @@
       <c r="L30" s="1"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1636,16 +1800,18 @@
       <c r="L31" s="1"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1655,16 +1821,18 @@
       <c r="L32" s="1"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1674,45 +1842,265 @@
       <c r="L33" s="1"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>0</v>
-      </c>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E46">
       <formula1>"清水,田中,木村,菅原,保地谷"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>43582</formula1>
       <formula2>43582</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D46">
       <formula1>43582</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46">
       <formula1>"未完,完了,調整の余地あり,無理"</formula1>
     </dataValidation>
   </dataValidations>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\sterRegein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
   <si>
     <t>締め切り</t>
     <rPh sb="0" eb="1">
@@ -36,13 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いつから</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>β</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>田中</t>
   </si>
   <si>
@@ -454,6 +443,69 @@
   </si>
   <si>
     <t>Hキーでヘルプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成チェック　5月27日</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天秤座のバグ</t>
+    <rPh sb="0" eb="3">
+      <t>テンビンザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの左右選択</t>
+    <rPh sb="4" eb="6">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ届き次第タイトル作成</t>
+    <rPh sb="6" eb="7">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル文章</t>
+    <rPh sb="7" eb="9">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整の余地あり</t>
+  </si>
+  <si>
+    <t>エンターキーでも進めるようにする処理</t>
+    <rPh sb="8" eb="9">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -708,13 +760,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +854,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,42 +1141,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1114,25 +1185,25 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="23">
         <v>43574</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1141,25 +1212,25 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23">
         <v>43574</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1168,25 +1239,25 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="23">
         <v>43574</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1195,19 +1266,19 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="23">
         <v>43574</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1219,19 +1290,19 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="23">
         <v>43574</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1244,19 +1315,19 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="23">
         <v>43574</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1268,19 +1339,19 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="23">
         <v>43574</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1293,19 +1364,19 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="23">
         <v>43574</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1318,19 +1389,19 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="23">
         <v>43574</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1343,19 +1414,19 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="23">
         <v>43574</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1368,19 +1439,19 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="23">
         <v>43574</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1393,19 +1464,19 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23">
-        <v>43574</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1418,19 +1489,19 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="23">
         <v>43574</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1443,19 +1514,19 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="23">
         <v>43574</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1468,19 +1539,19 @@
     <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="23">
         <v>43574</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1493,19 +1564,19 @@
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="23">
         <v>43574</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1518,19 +1589,19 @@
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="23">
         <v>43574</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1543,19 +1614,19 @@
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="23">
         <v>43574</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1568,19 +1639,19 @@
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="23">
         <v>43574</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1593,15 +1664,19 @@
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="23">
+        <v>43574</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1614,15 +1689,19 @@
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="23">
+        <v>43574</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1635,15 +1714,19 @@
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="23">
+        <v>43574</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1656,15 +1739,19 @@
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="23">
+        <v>43574</v>
+      </c>
       <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1677,15 +1764,19 @@
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="23">
+        <v>43574</v>
+      </c>
       <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1698,15 +1789,19 @@
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="23">
+        <v>43574</v>
+      </c>
       <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1719,15 +1814,19 @@
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="23">
+        <v>43574</v>
+      </c>
       <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1740,15 +1839,19 @@
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C29" s="23">
+        <v>43574</v>
+      </c>
       <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1761,15 +1864,19 @@
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C30" s="23">
+        <v>43574</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1782,15 +1889,19 @@
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="23">
+        <v>43574</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1803,15 +1914,19 @@
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C32" s="23">
+        <v>43574</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1824,15 +1939,19 @@
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C33" s="23">
+        <v>43574</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1845,15 +1964,19 @@
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="23">
+        <v>43574</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1866,15 +1989,19 @@
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C35" s="23">
+        <v>43574</v>
+      </c>
       <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1887,15 +2014,19 @@
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C36" s="23">
+        <v>43574</v>
+      </c>
       <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1908,15 +2039,19 @@
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C37" s="23">
+        <v>43574</v>
+      </c>
       <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1929,15 +2064,19 @@
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C38" s="23">
+        <v>43574</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1950,15 +2089,19 @@
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C39" s="23">
+        <v>43574</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1970,11 +2113,21 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1985,11 +2138,21 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2000,11 +2163,21 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2015,11 +2188,21 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2030,11 +2213,21 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="23">
+        <v>43574</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2046,13 +2239,15 @@
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="23">
+        <v>43574</v>
+      </c>
       <c r="D45" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2063,9 +2258,7 @@
       <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>0</v>
       </c>
@@ -2073,11 +2266,11 @@
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
